--- a/cleaned all season/wicket_keeperset_ipl.xlsx
+++ b/cleaned all season/wicket_keeperset_ipl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/cleaned all season/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/cleaned all season/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAF4710-4E8B-C947-A193-4C34B3730AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BA392F-14A2-BD44-B359-C5425BF77AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="900" windowWidth="14480" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Player</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>2023-2024</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t xml:space="preserve">Rahmanullah Gurbaz </t>
@@ -222,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,10 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,7 +535,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -587,21 +581,21 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>24</v>
@@ -615,8 +609,8 @@
       <c r="F2" s="2">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
+      <c r="G2" s="2">
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>4</v>
@@ -631,16 +625,16 @@
         <v>2</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -653,8 +647,8 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
+      <c r="G3" s="2">
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -663,13 +657,13 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2">
         <v>5</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -707,7 +701,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -745,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -783,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -821,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -859,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -897,7 +891,7 @@
         <v>6</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -931,11 +925,11 @@
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <v>4</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -957,8 +951,8 @@
       <c r="F11" s="2">
         <v>17</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>33</v>
+      <c r="G11" s="2">
+        <v>0</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
@@ -969,16 +963,16 @@
       <c r="J11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -995,8 +989,8 @@
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>33</v>
+      <c r="G12" s="2">
+        <v>0</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -1005,13 +999,13 @@
         <v>0.4</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="4">
+        <v>36</v>
+      </c>
+      <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1045,16 +1039,16 @@
       <c r="J13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>32</v>
@@ -1071,8 +1065,8 @@
       <c r="F14" s="2">
         <v>15</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>33</v>
+      <c r="G14" s="2">
+        <v>0</v>
       </c>
       <c r="H14" s="2">
         <v>4</v>
@@ -1083,11 +1077,11 @@
       <c r="J14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <v>2</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1121,11 +1115,11 @@
       <c r="J15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <v>5</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1159,11 +1153,11 @@
       <c r="J16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="2">
         <v>3</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
